--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H2">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I2">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J2">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N2">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O2">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P2">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q2">
-        <v>116.2215186757313</v>
+        <v>301.2327361248982</v>
       </c>
       <c r="R2">
-        <v>1045.993668081582</v>
+        <v>2711.094625124084</v>
       </c>
       <c r="S2">
-        <v>0.003310160785752121</v>
+        <v>0.006992095124092642</v>
       </c>
       <c r="T2">
-        <v>0.00331016078575212</v>
+        <v>0.006992095124092639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H3">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I3">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J3">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.782459</v>
       </c>
       <c r="O3">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P3">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q3">
-        <v>93.25430509724636</v>
+        <v>192.3929923775792</v>
       </c>
       <c r="R3">
-        <v>839.2887458752172</v>
+        <v>1731.536931398213</v>
       </c>
       <c r="S3">
-        <v>0.002656020566180461</v>
+        <v>0.004465750041705629</v>
       </c>
       <c r="T3">
-        <v>0.002656020566180461</v>
+        <v>0.004465750041705626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H4">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I4">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J4">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N4">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O4">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P4">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q4">
-        <v>82.64688877795533</v>
+        <v>204.5271498059176</v>
       </c>
       <c r="R4">
-        <v>743.821999001598</v>
+        <v>1840.744348253259</v>
       </c>
       <c r="S4">
-        <v>0.002353905657183009</v>
+        <v>0.004747403304498686</v>
       </c>
       <c r="T4">
-        <v>0.002353905657183009</v>
+        <v>0.004747403304498684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H5">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I5">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J5">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N5">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O5">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P5">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q5">
-        <v>63.94189937331534</v>
+        <v>149.3470862427892</v>
       </c>
       <c r="R5">
-        <v>575.477094359838</v>
+        <v>1344.123776185103</v>
       </c>
       <c r="S5">
-        <v>0.001821159887461131</v>
+        <v>0.003466585494488485</v>
       </c>
       <c r="T5">
-        <v>0.00182115988746113</v>
+        <v>0.003466585494488484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I6">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J6">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N6">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O6">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P6">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q6">
-        <v>8153.036280811289</v>
+        <v>10242.70432369198</v>
       </c>
       <c r="R6">
-        <v>73377.3265273016</v>
+        <v>92184.33891322782</v>
       </c>
       <c r="S6">
-        <v>0.2322105345814181</v>
+        <v>0.2377496014560476</v>
       </c>
       <c r="T6">
-        <v>0.2322105345814181</v>
+        <v>0.2377496014560476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I7">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J7">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>32.782459</v>
       </c>
       <c r="O7">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P7">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q7">
         <v>6541.86712979562</v>
@@ -883,10 +883,10 @@
         <v>58876.80416816058</v>
       </c>
       <c r="S7">
-        <v>0.1863220536557317</v>
+        <v>0.1518472323065858</v>
       </c>
       <c r="T7">
-        <v>0.1863220536557317</v>
+        <v>0.1518472323065858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I8">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J8">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N8">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O8">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P8">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q8">
-        <v>5797.748045117816</v>
+        <v>6954.460357060498</v>
       </c>
       <c r="R8">
-        <v>52179.73240606035</v>
+        <v>62590.14321354448</v>
       </c>
       <c r="S8">
-        <v>0.1651284413015286</v>
+        <v>0.1614241831045105</v>
       </c>
       <c r="T8">
-        <v>0.1651284413015286</v>
+        <v>0.1614241831045105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I9">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J9">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N9">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O9">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P9">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q9">
-        <v>4485.577467879737</v>
+        <v>5078.193245755198</v>
       </c>
       <c r="R9">
-        <v>40370.19721091763</v>
+        <v>45703.73921179679</v>
       </c>
       <c r="S9">
-        <v>0.1277558820845908</v>
+        <v>0.1178730130384069</v>
       </c>
       <c r="T9">
-        <v>0.1277558820845908</v>
+        <v>0.1178730130384069</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H10">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I10">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J10">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N10">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O10">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P10">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q10">
-        <v>3181.716380979698</v>
+        <v>4699.294078205721</v>
       </c>
       <c r="R10">
-        <v>28635.44742881728</v>
+        <v>42293.6467038515</v>
       </c>
       <c r="S10">
-        <v>0.09061998944523666</v>
+        <v>0.1090781554275561</v>
       </c>
       <c r="T10">
-        <v>0.09061998944523665</v>
+        <v>0.1090781554275561</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H11">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I11">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J11">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.782459</v>
       </c>
       <c r="O11">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P11">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q11">
-        <v>2552.958810946463</v>
+        <v>3001.371170341097</v>
       </c>
       <c r="R11">
-        <v>22976.62929851817</v>
+        <v>27012.34053306988</v>
       </c>
       <c r="S11">
-        <v>0.07271204368971965</v>
+        <v>0.06966664047108403</v>
       </c>
       <c r="T11">
-        <v>0.07271204368971963</v>
+        <v>0.06966664047108402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H12">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I12">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J12">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N12">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O12">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P12">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q12">
-        <v>2262.566888284322</v>
+        <v>3190.666579865791</v>
       </c>
       <c r="R12">
-        <v>20363.1019945589</v>
+        <v>28715.99921879212</v>
       </c>
       <c r="S12">
-        <v>0.06444125213710414</v>
+        <v>0.07406049064479805</v>
       </c>
       <c r="T12">
-        <v>0.06444125213710412</v>
+        <v>0.07406049064479804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H13">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I13">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J13">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N13">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O13">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P13">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q13">
-        <v>1750.493290615682</v>
+        <v>2329.845975594847</v>
       </c>
       <c r="R13">
-        <v>15754.43961554114</v>
+        <v>20968.61378035362</v>
       </c>
       <c r="S13">
-        <v>0.04985663853253516</v>
+        <v>0.05407946325956142</v>
       </c>
       <c r="T13">
-        <v>0.04985663853253514</v>
+        <v>0.05407946325956142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H14">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I14">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J14">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N14">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O14">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P14">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q14">
-        <v>9.304803073568221</v>
+        <v>69.66427702284399</v>
       </c>
       <c r="R14">
-        <v>83.74322766211398</v>
+        <v>626.978493205596</v>
       </c>
       <c r="S14">
-        <v>0.0002650145567208363</v>
+        <v>0.001617019643883936</v>
       </c>
       <c r="T14">
-        <v>0.0002650145567208362</v>
+        <v>0.001617019643883935</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H15">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I15">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J15">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.782459</v>
       </c>
       <c r="O15">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P15">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q15">
-        <v>7.466026554973222</v>
+        <v>44.493566305783</v>
       </c>
       <c r="R15">
-        <v>67.194238994759</v>
+        <v>400.442096752047</v>
       </c>
       <c r="S15">
-        <v>0.0002126434812524691</v>
+        <v>0.001032767062511981</v>
       </c>
       <c r="T15">
-        <v>0.0002126434812524691</v>
+        <v>0.001032767062511981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H16">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I16">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J16">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N16">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O16">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P16">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q16">
-        <v>6.616786921082888</v>
+        <v>47.299759667769</v>
       </c>
       <c r="R16">
-        <v>59.55108228974598</v>
+        <v>425.697837009921</v>
       </c>
       <c r="S16">
-        <v>0.0001884558801451943</v>
+        <v>0.00109790331289437</v>
       </c>
       <c r="T16">
-        <v>0.0001884558801451943</v>
+        <v>0.00109790331289437</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H17">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I17">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J17">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N17">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O17">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P17">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q17">
-        <v>5.119248041136222</v>
+        <v>34.53859936477299</v>
       </c>
       <c r="R17">
-        <v>46.07323237022599</v>
+        <v>310.847394282957</v>
       </c>
       <c r="S17">
-        <v>0.0001458037574400234</v>
+        <v>0.0008016963073737378</v>
       </c>
       <c r="T17">
-        <v>0.0001458037574400234</v>
+        <v>0.0008016963073737378</v>
       </c>
     </row>
   </sheetData>
